--- a/TestingData/ExcelFileForTestData.xlsx
+++ b/TestingData/ExcelFileForTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -22,22 +22,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ddf</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
     <t>nirbhayt@techved.com</t>
   </si>
   <si>
-    <t>fddfd</t>
+    <t>admin@1287</t>
+  </si>
+  <si>
+    <t>"123"</t>
+  </si>
+  <si>
+    <t>Nir</t>
   </si>
   <si>
     <t>admin@128</t>
@@ -46,7 +40,7 @@
     <t>nirbhaytt@techved.com</t>
   </si>
   <si>
-    <t>fdsf</t>
+    <t>Nirbhay</t>
   </si>
   <si>
     <t>admin@129</t>
@@ -57,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="dd/mmm"/>
   </numFmts>
   <fonts count="25">
@@ -126,59 +120,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +157,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -225,29 +196,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +262,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,61 +406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,97 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,50 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +476,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,153 +533,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,44 +713,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -858,13 +852,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>2259330</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -880,7 +874,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7257415" y="6400800"/>
+              <a:off x="8252460" y="5669280"/>
               <a:ext cx="2259330" cy="201930"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1154,15 +1148,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.712962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5555555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.8888888888889" style="2" customWidth="1"/>
@@ -1184,396 +1178,406 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:12">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
     </row>
     <row r="6" ht="28.8" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" ht="28.8" spans="1:12">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" ht="28.8" spans="1:12">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" ht="28.8" spans="1:12">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="1"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+    <row r="15" spans="2:3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="8"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="18"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="18"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="18"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="21"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="10"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="21"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="10"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="21"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="10"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="21"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="10"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="21"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="10"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="21"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="10"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="21"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="10"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
+    <row r="31" spans="3:5">
+      <c r="C31" s="18"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="18"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="3:5">
+      <c r="C32" s="21"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" ht="61" customHeight="1" spans="3:9">
       <c r="C33" s="21"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" ht="61" customHeight="1" spans="3:9">
-      <c r="C34" s="21"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="21"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="18"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="21"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="18"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
+    <row r="35" spans="3:6">
+      <c r="C35" s="21"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="21"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="21"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="3:8">
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="3:6">
+    </row>
+    <row r="38" spans="3:5">
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="18"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="21"/>
       <c r="D39" s="18"/>
       <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="21"/>
       <c r="D40" s="18"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="3:6">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="3:5">
       <c r="C41" s="21"/>
       <c r="D41" s="18"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="21"/>
@@ -1590,16 +1594,16 @@
       <c r="D44" s="18"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:7">
       <c r="C45" s="21"/>
       <c r="D45" s="18"/>
       <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="3:7">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="3:5">
       <c r="C46" s="21"/>
       <c r="D46" s="18"/>
       <c r="E46" s="21"/>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="21"/>
@@ -1612,12 +1616,12 @@
       <c r="E48" s="21"/>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="21"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="18"/>
       <c r="E49" s="21"/>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="7"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="21"/>
     </row>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="3:5">
@@ -1677,7 +1681,7 @@
       <c r="E61" s="21"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="18"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
     </row>
@@ -1696,19 +1700,17 @@
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="3:3">
       <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="21"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="21"/>
+      <c r="C68" s="18"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="18"/>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="21"/>
@@ -1716,21 +1718,22 @@
     <row r="71" spans="3:3">
       <c r="C71" s="21"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" s="21"/>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="17"/>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="17"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="5:5">
       <c r="E74" s="24"/>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" s="24"/>
     </row>
-    <row r="76" spans="5:5">
+    <row r="76" spans="3:5">
+      <c r="C76" s="23"/>
       <c r="E76" s="24"/>
     </row>
     <row r="77" spans="3:5">
@@ -1753,15 +1756,14 @@
       <c r="C81" s="23"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:3">
       <c r="C82" s="23"/>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="23"/>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="24"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="24"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" s="24"/>
@@ -1775,11 +1777,11 @@
     <row r="89" spans="5:5">
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="24"/>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="24"/>
+    <row r="91" spans="5:5">
+      <c r="E91" s="24"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" s="24"/>
@@ -1787,11 +1789,11 @@
     <row r="95" spans="5:5">
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="24"/>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="24"/>
+    <row r="97" spans="5:5">
+      <c r="E97" s="24"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="24"/>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" s="24"/>
@@ -1799,17 +1801,17 @@
     <row r="101" spans="5:5">
       <c r="E101" s="24"/>
     </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="24"/>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="24"/>
+    <row r="103" spans="5:5">
+      <c r="E103" s="24"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="24"/>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" s="24"/>
     </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="24"/>
+    <row r="108" spans="5:5">
+      <c r="E108" s="24"/>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="24"/>
@@ -1817,8 +1819,8 @@
     <row r="110" spans="5:5">
       <c r="E110" s="24"/>
     </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="24"/>
+    <row r="112" spans="5:5">
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="24"/>
@@ -1838,8 +1840,8 @@
     <row r="118" spans="5:5">
       <c r="E118" s="24"/>
     </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="24"/>
+    <row r="120" spans="5:5">
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="24"/>
@@ -1847,11 +1849,11 @@
     <row r="122" spans="5:5">
       <c r="E122" s="24"/>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="24"/>
-    </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="24"/>
+    <row r="124" spans="5:5">
+      <c r="E124" s="24"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="24"/>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="24"/>
@@ -1859,23 +1861,23 @@
     <row r="128" spans="5:5">
       <c r="E128" s="24"/>
     </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="24"/>
+    <row r="130" spans="5:5">
+      <c r="E130" s="24"/>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" s="24"/>
     </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="24"/>
-    </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="24"/>
+    <row r="133" spans="5:5">
+      <c r="E133" s="24"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="24"/>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" s="24"/>
     </row>
-    <row r="137" spans="5:5">
-      <c r="E137" s="24"/>
+    <row r="138" spans="5:5">
+      <c r="E138" s="24"/>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" s="24"/>
@@ -1883,8 +1885,8 @@
     <row r="140" spans="5:5">
       <c r="E140" s="24"/>
     </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="24"/>
+    <row r="142" spans="5:5">
+      <c r="E142" s="24"/>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="24"/>
@@ -1895,11 +1897,11 @@
     <row r="145" spans="5:5">
       <c r="E145" s="24"/>
     </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="24"/>
-    </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="24"/>
+    <row r="147" spans="5:5">
+      <c r="E147" s="24"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="24"/>
@@ -1907,11 +1909,11 @@
     <row r="151" spans="5:5">
       <c r="E151" s="24"/>
     </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="24"/>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="24"/>
+    <row r="153" spans="5:5">
+      <c r="E153" s="24"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="24"/>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" s="24"/>
@@ -1922,8 +1924,8 @@
     <row r="158" spans="5:5">
       <c r="E158" s="24"/>
     </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="24"/>
+    <row r="160" spans="5:5">
+      <c r="E160" s="24"/>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" s="24"/>
@@ -1934,14 +1936,14 @@
     <row r="163" spans="5:5">
       <c r="E163" s="24"/>
     </row>
-    <row r="164" spans="5:5">
-      <c r="E164" s="24"/>
+    <row r="165" spans="5:5">
+      <c r="E165" s="24"/>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" s="24"/>
     </row>
-    <row r="167" spans="5:5">
-      <c r="E167" s="24"/>
+    <row r="168" spans="5:5">
+      <c r="E168" s="24"/>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" s="24"/>
@@ -1952,8 +1954,8 @@
     <row r="171" spans="5:5">
       <c r="E171" s="24"/>
     </row>
-    <row r="172" spans="5:5">
-      <c r="E172" s="24"/>
+    <row r="173" spans="5:5">
+      <c r="E173" s="24"/>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" s="24"/>
@@ -1976,11 +1978,11 @@
     <row r="180" spans="5:5">
       <c r="E180" s="24"/>
     </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="24"/>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="24"/>
+    <row r="182" spans="5:5">
+      <c r="E182" s="24"/>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="24"/>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" s="24"/>
@@ -1988,17 +1990,17 @@
     <row r="186" spans="5:5">
       <c r="E186" s="24"/>
     </row>
-    <row r="187" spans="5:5">
-      <c r="E187" s="24"/>
-    </row>
-    <row r="189" spans="5:5">
-      <c r="E189" s="24"/>
+    <row r="188" spans="5:5">
+      <c r="E188" s="24"/>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" s="24"/>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" s="24"/>
     </row>
-    <row r="192" spans="5:5">
-      <c r="E192" s="24"/>
+    <row r="193" spans="5:5">
+      <c r="E193" s="24"/>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" s="24"/>
@@ -2006,8 +2008,8 @@
     <row r="195" spans="5:5">
       <c r="E195" s="24"/>
     </row>
-    <row r="196" spans="5:5">
-      <c r="E196" s="24"/>
+    <row r="197" spans="5:5">
+      <c r="E197" s="24"/>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" s="24"/>
@@ -2024,19 +2026,18 @@
     <row r="202" spans="5:5">
       <c r="E202" s="24"/>
     </row>
-    <row r="203" spans="5:5">
-      <c r="E203" s="24"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId4" display="nirbhayt@techved.com" tooltip="mailto:nirbhayt@techved.com"/>
-    <hyperlink ref="B5" r:id="rId5" display="admin@128" tooltip="mailto:admin@128"/>
-    <hyperlink ref="A6" r:id="rId6" display="nirbhaytt@techved.com" tooltip="mailto:nirbhaytt@techved.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="nirbhaytt@techved.com"/>
-    <hyperlink ref="B7" r:id="rId7" display="admin@129"/>
-    <hyperlink ref="B8" r:id="rId5" display="admin@128"/>
-    <hyperlink ref="A8" r:id="rId6" display="nirbhaytt@techved.com"/>
-    <hyperlink ref="A9" r:id="rId4" display="nirbhayt@techved.com"/>
+    <hyperlink ref="A3" r:id="rId4" display="nirbhayt@techved.com" tooltip="mailto:nirbhayt@techved.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="admin@128" tooltip="mailto:admin@128"/>
+    <hyperlink ref="A5" r:id="rId6" display="nirbhaytt@techved.com" tooltip="mailto:nirbhaytt@techved.com"/>
+    <hyperlink ref="A6" r:id="rId6" display="nirbhaytt@techved.com"/>
+    <hyperlink ref="B6" r:id="rId7" display="admin@129"/>
+    <hyperlink ref="B7" r:id="rId5" display="admin@128"/>
+    <hyperlink ref="A7" r:id="rId6" display="nirbhaytt@techved.com" tooltip="mailto:nirbhaytt@techved.com"/>
+    <hyperlink ref="A8" r:id="rId4" display="nirbhayt@techved.com" tooltip="mailto:nirbhayt@techved.com"/>
+    <hyperlink ref="A2" r:id="rId4" display="nirbhayt@techved.com" tooltip="mailto:nirbhayt@techved.com"/>
+    <hyperlink ref="B2" r:id="rId8" display="admin@1287" tooltip="mailto:admin@1287"/>
     <hyperlink ref="B9" r:id="rId5" display="admin@128"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2052,13 +2053,13 @@
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>2259330</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
